--- a/biology/Botanique/Monolectisme/Monolectisme.xlsx
+++ b/biology/Botanique/Monolectisme/Monolectisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En écologie de la pollinisation, le monolectisme (du grec mono-, « unique », et lectic, « capable de choisir ») est une modalité de pollinisation dans lequel des insectes (dits monolectiques ; spécialement les abeilles) butinent une seule espèce (notion de constance florale). Ces insectes sont des pollinisateurs spécialistes.
-Cette spécialisation s'observe dans des cas de coadaptation (fleurs à corolle profonde en tube ou à éperon), d'isolement géographique (fleurs à inflorescences fermées, à anthères poricides)[1]. Elle permet à ces insectes qui ont des capacités d'apprentissage limitées de s'adapter à une ressource particulière éventuellement délaissée par les autres, de réduire les dépenses énergétiques liées à la recherche de nourriture. Chez les plantes, la spécialisation diminue les risques que le pollen soit transporté vers la fleur d'une espèce différente, et assure donc un transport pollinique optimal[2].
+Cette spécialisation s'observe dans des cas de coadaptation (fleurs à corolle profonde en tube ou à éperon), d'isolement géographique (fleurs à inflorescences fermées, à anthères poricides). Elle permet à ces insectes qui ont des capacités d'apprentissage limitées de s'adapter à une ressource particulière éventuellement délaissée par les autres, de réduire les dépenses énergétiques liées à la recherche de nourriture. Chez les plantes, la spécialisation diminue les risques que le pollen soit transporté vers la fleur d'une espèce différente, et assure donc un transport pollinique optimal.
 </t>
         </is>
       </c>
